--- a/PaperAppendices/ARDiff/assets/EquivalentResults.xlsx
+++ b/PaperAppendices/ARDiff/assets/EquivalentResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/Projects/Equivalence Checking/results/MainFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98150BBC-9E2B-F94B-B5B8-24D9DCDF9110}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BBA959-7BB0-4948-B1EC-932C4384AA82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{8B77D404-D883-304A-93B9-C70AF0CD0F67}"/>
+    <workbookView xWindow="-20400" yWindow="-1780" windowWidth="20260" windowHeight="21100" activeTab="1" xr2:uid="{8B77D404-D883-304A-93B9-C70AF0CD0F67}"/>
   </bookViews>
   <sheets>
     <sheet name="Eq" sheetId="22" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="94">
   <si>
     <t>snippet</t>
   </si>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>gser</t>
-  </si>
-  <si>
-    <t>Un</t>
   </si>
   <si>
     <t>Airy</t>
@@ -360,7 +357,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -613,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -703,6 +700,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,6 +731,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1041,13 +1052,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C9B1AC-20F8-134B-9905-1388FED811A7}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="F61" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
@@ -1057,12 +1068,12 @@
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>3</v>
@@ -1071,400 +1082,400 @@
         <v>4</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
+      <c r="B3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="43"/>
+      <c r="B4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="43"/>
+      <c r="B5" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="43"/>
+      <c r="B6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="43"/>
+      <c r="B7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="43"/>
+      <c r="B8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="43"/>
+      <c r="B9" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="43"/>
+      <c r="B10" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="43"/>
+      <c r="B11" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="43"/>
+      <c r="B12" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="43"/>
+      <c r="B13" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="43"/>
+      <c r="B14" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="43"/>
+      <c r="B15" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="43"/>
+      <c r="B16" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="43"/>
+      <c r="B17" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="40"/>
-      <c r="B3" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="40"/>
-      <c r="B4" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="40"/>
-      <c r="B5" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="40"/>
-      <c r="B6" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="40"/>
-      <c r="B7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="40"/>
-      <c r="B8" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="40"/>
-      <c r="B9" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="40"/>
-      <c r="B10" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="40"/>
-      <c r="B11" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="40"/>
-      <c r="B12" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="40"/>
-      <c r="B13" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="40"/>
-      <c r="B14" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="40"/>
-      <c r="B15" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="40"/>
-      <c r="B16" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="40"/>
-      <c r="B17" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="41" t="s">
+      <c r="C18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="41"/>
+      <c r="B19" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
         <v>59</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="38"/>
-      <c r="B19" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="35" t="s">
-        <v>60</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>17</v>
@@ -1473,20 +1484,20 @@
         <v>5</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
       <c r="B21" s="25" t="s">
         <v>18</v>
       </c>
@@ -1497,7 +1508,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>6</v>
@@ -1506,8 +1517,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
       <c r="B22" s="25" t="s">
         <v>19</v>
       </c>
@@ -1527,8 +1538,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="35"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="38"/>
       <c r="B23" s="25" t="s">
         <v>20</v>
       </c>
@@ -1536,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>5</v>
@@ -1548,8 +1559,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="38"/>
       <c r="B24" s="25" t="s">
         <v>21</v>
       </c>
@@ -1557,7 +1568,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>6</v>
@@ -1569,8 +1580,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="35"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="38"/>
       <c r="B25" s="25" t="s">
         <v>22</v>
       </c>
@@ -1578,7 +1589,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>5</v>
@@ -1590,8 +1601,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="38"/>
       <c r="B26" s="25" t="s">
         <v>23</v>
       </c>
@@ -1602,7 +1613,7 @@
         <v>16</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>6</v>
@@ -1611,8 +1622,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="38"/>
       <c r="B27" s="25" t="s">
         <v>31</v>
       </c>
@@ -1622,18 +1633,18 @@
       <c r="D27" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>5</v>
+      <c r="E27" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>6</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="35"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="38"/>
       <c r="B28" s="25" t="s">
         <v>30</v>
       </c>
@@ -1653,8 +1664,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="35"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="38"/>
       <c r="B29" s="25" t="s">
         <v>29</v>
       </c>
@@ -1674,8 +1685,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="38"/>
       <c r="B30" s="25" t="s">
         <v>28</v>
       </c>
@@ -1695,19 +1706,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="38"/>
       <c r="B31" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>6</v>
+      <c r="D31" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>5</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>6</v>
@@ -1716,8 +1727,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="35"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
       <c r="B32" s="25" t="s">
         <v>26</v>
       </c>
@@ -1737,8 +1748,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="35"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="38"/>
       <c r="B33" s="25" t="s">
         <v>25</v>
       </c>
@@ -1758,16 +1769,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="35"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="38"/>
       <c r="B34" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>6</v>
+      <c r="D34" s="35" t="s">
+        <v>5</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>6</v>
@@ -1779,32 +1790,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="35"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="38"/>
       <c r="B35" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="41"/>
+      <c r="B36" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="38"/>
-      <c r="B36" s="24" t="s">
-        <v>91</v>
-      </c>
       <c r="C36" s="18" t="s">
         <v>6</v>
       </c>
@@ -1821,9 +1832,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="35" t="s">
-        <v>62</v>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="38" t="s">
+        <v>61</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>32</v>
@@ -1844,8 +1855,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="38"/>
       <c r="B38" s="25" t="s">
         <v>33</v>
       </c>
@@ -1865,9 +1876,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="26" t="s">
         <v>15</v>
@@ -1888,9 +1899,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="35" t="s">
-        <v>64</v>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="38" t="s">
+        <v>63</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>38</v>
@@ -1911,8 +1922,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="35"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="38"/>
       <c r="B41" s="25" t="s">
         <v>39</v>
       </c>
@@ -1929,11 +1940,11 @@
         <v>5</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="35"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="38"/>
       <c r="B42" s="25" t="s">
         <v>40</v>
       </c>
@@ -1953,8 +1964,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="35"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="38"/>
       <c r="B43" s="25" t="s">
         <v>41</v>
       </c>
@@ -1974,8 +1985,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="38"/>
       <c r="B44" s="25" t="s">
         <v>42</v>
       </c>
@@ -1995,8 +2006,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="35"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="38"/>
       <c r="B45" s="25" t="s">
         <v>43</v>
       </c>
@@ -2016,71 +2027,71 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="35"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="38"/>
       <c r="B46" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>6</v>
+      <c r="E46" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>5</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="35"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="38"/>
       <c r="B47" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>6</v>
+      <c r="D47" s="35" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="35"/>
+      <c r="F47" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="38"/>
       <c r="B48" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="41"/>
       <c r="B49" s="24" t="s">
         <v>47</v>
       </c>
@@ -2100,52 +2111,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="35" t="s">
-        <v>65</v>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="35"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="38"/>
       <c r="B51" s="25" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="35"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="38"/>
       <c r="B52" s="25" t="s">
         <v>51</v>
       </c>
@@ -2165,8 +2176,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="35"/>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="38"/>
       <c r="B53" s="25" t="s">
         <v>52</v>
       </c>
@@ -2177,17 +2188,17 @@
         <v>6</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="G53" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="35"/>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="38"/>
       <c r="B54" s="25" t="s">
         <v>53</v>
       </c>
@@ -2207,8 +2218,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="35"/>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="38"/>
       <c r="B55" s="25" t="s">
         <v>54</v>
       </c>
@@ -2228,13 +2239,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="35"/>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="38"/>
       <c r="B56" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>6</v>
@@ -2249,29 +2260,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="35"/>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="38"/>
       <c r="B57" s="25" t="s">
         <v>56</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="35"/>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="38"/>
       <c r="B58" s="25" t="s">
         <v>57</v>
       </c>
@@ -2287,13 +2298,19 @@
       <c r="F58" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="G58" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="48"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" s="26" t="s">
         <v>15</v>
@@ -2310,19 +2327,25 @@
       <c r="F59" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G59" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="35" t="s">
-        <v>67</v>
+      <c r="G59" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="48"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="38" t="s">
+        <v>66</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>6</v>
@@ -2333,20 +2356,26 @@
       <c r="F60" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G60" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="35"/>
+      <c r="G60" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="49"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="38"/>
       <c r="B61" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="17" t="s">
-        <v>16</v>
+      <c r="D61" s="36" t="s">
+        <v>5</v>
       </c>
       <c r="E61" s="25" t="s">
         <v>5</v>
@@ -2354,12 +2383,18 @@
       <c r="F61" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G61" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="35"/>
+      <c r="G61" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="48"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="38"/>
       <c r="B62" s="25" t="s">
         <v>7</v>
       </c>
@@ -2375,20 +2410,26 @@
       <c r="F62" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G62" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="35"/>
+      <c r="G62" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="48"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="38"/>
       <c r="B63" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>5</v>
+      <c r="D63" s="35" t="s">
+        <v>16</v>
       </c>
       <c r="E63" s="25" t="s">
         <v>6</v>
@@ -2400,13 +2441,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="35"/>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="38"/>
       <c r="B64" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>16</v>
@@ -2421,8 +2462,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="35"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="38"/>
       <c r="B65" s="25" t="s">
         <v>12</v>
       </c>
@@ -2432,8 +2473,8 @@
       <c r="D65" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="25" t="s">
-        <v>5</v>
+      <c r="E65" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="F65" s="25" t="s">
         <v>16</v>
@@ -2442,8 +2483,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="35"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="38"/>
       <c r="B66" s="25" t="s">
         <v>14</v>
       </c>
@@ -2463,8 +2504,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="35"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="38"/>
       <c r="B67" s="25" t="s">
         <v>10</v>
       </c>
@@ -2475,7 +2516,7 @@
         <v>5</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F67" s="25" t="s">
         <v>6</v>
@@ -2484,9 +2525,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="26" t="s">
         <v>37</v>
@@ -2507,9 +2548,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="36" t="s">
-        <v>68</v>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="B69" s="25" t="s">
         <v>34</v>
@@ -2530,8 +2571,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="36"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="39"/>
       <c r="B70" s="25" t="s">
         <v>35</v>
       </c>
@@ -2551,8 +2592,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="37"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="40"/>
       <c r="B71" s="24" t="s">
         <v>36</v>
       </c>
@@ -2572,9 +2613,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="35" t="s">
-        <v>69</v>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="38" t="s">
+        <v>68</v>
       </c>
       <c r="B72" s="25" t="s">
         <v>8</v>
@@ -2583,10 +2624,10 @@
         <v>5</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E72" s="36" t="s">
+        <v>5</v>
       </c>
       <c r="F72" s="25" t="s">
         <v>6</v>
@@ -2595,8 +2636,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="35"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="38"/>
       <c r="B73" s="25" t="s">
         <v>0</v>
       </c>
@@ -2604,10 +2645,10 @@
         <v>5</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F73" s="25" t="s">
         <v>5</v>
@@ -2616,8 +2657,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="38"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="41"/>
       <c r="B74" s="24" t="s">
         <v>1</v>
       </c>
@@ -2657,11 +2698,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983161BA-70B7-9E49-AE93-604F25BAD695}">
   <dimension ref="A1:AH286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="3" customWidth="1"/>
@@ -2676,12 +2717,12 @@
     <col min="11" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="11" customFormat="1" ht="33" customHeight="1">
+    <row r="1" spans="1:34" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>3</v>
@@ -2689,25 +2730,25 @@
       <c r="D1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="43"/>
-    </row>
-    <row r="2" spans="1:34" s="9" customFormat="1" ht="17" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>88</v>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:34" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>87</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="10">
         <v>1245</v>
@@ -2751,10 +2792,10 @@
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
     </row>
-    <row r="3" spans="1:34" s="9" customFormat="1">
-      <c r="A3" s="40"/>
+    <row r="3" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
       <c r="B3" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="10">
         <v>2021</v>
@@ -2798,10 +2839,10 @@
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
     </row>
-    <row r="4" spans="1:34" s="9" customFormat="1">
-      <c r="A4" s="40"/>
+    <row r="4" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="43"/>
       <c r="B4" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="10">
         <v>1236</v>
@@ -2845,10 +2886,10 @@
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
     </row>
-    <row r="5" spans="1:34" s="8" customFormat="1">
-      <c r="A5" s="40"/>
+    <row r="5" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43"/>
       <c r="B5" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="10">
         <v>3986</v>
@@ -2875,10 +2916,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="9" customFormat="1">
-      <c r="A6" s="40"/>
+    <row r="6" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43"/>
       <c r="B6" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="10">
         <v>1265</v>
@@ -2923,10 +2964,10 @@
       <c r="AA6" s="8"/>
       <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:34" s="9" customFormat="1">
-      <c r="A7" s="40"/>
+    <row r="7" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43"/>
       <c r="B7" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="10">
         <v>2227</v>
@@ -2972,10 +3013,10 @@
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
     </row>
-    <row r="8" spans="1:34" s="9" customFormat="1">
-      <c r="A8" s="40"/>
+    <row r="8" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="43"/>
       <c r="B8" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="10">
         <v>3764</v>
@@ -3021,10 +3062,10 @@
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
     </row>
-    <row r="9" spans="1:34" s="9" customFormat="1">
-      <c r="A9" s="40"/>
+    <row r="9" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="43"/>
       <c r="B9" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="10">
         <v>5055</v>
@@ -3069,10 +3110,10 @@
       <c r="AA9" s="8"/>
       <c r="AH9" s="8"/>
     </row>
-    <row r="10" spans="1:34" s="9" customFormat="1">
-      <c r="A10" s="40"/>
+    <row r="10" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43"/>
       <c r="B10" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="10">
         <v>8520</v>
@@ -3117,10 +3158,10 @@
       <c r="AA10" s="8"/>
       <c r="AH10" s="8"/>
     </row>
-    <row r="11" spans="1:34" s="9" customFormat="1">
-      <c r="A11" s="40"/>
+    <row r="11" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43"/>
       <c r="B11" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="10">
         <v>10273</v>
@@ -3166,10 +3207,10 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
     </row>
-    <row r="12" spans="1:34" s="9" customFormat="1">
-      <c r="A12" s="40"/>
+    <row r="12" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43"/>
       <c r="B12" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="10">
         <v>16847</v>
@@ -3214,10 +3255,10 @@
       <c r="AA12" s="8"/>
       <c r="AH12" s="8"/>
     </row>
-    <row r="13" spans="1:34" s="9" customFormat="1">
-      <c r="A13" s="40"/>
+    <row r="13" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43"/>
       <c r="B13" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="10">
         <v>3764</v>
@@ -3263,10 +3304,10 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
     </row>
-    <row r="14" spans="1:34" s="9" customFormat="1">
-      <c r="A14" s="40"/>
+    <row r="14" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="43"/>
       <c r="B14" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="10">
         <v>5055</v>
@@ -3311,10 +3352,10 @@
       <c r="AA14" s="8"/>
       <c r="AH14" s="8"/>
     </row>
-    <row r="15" spans="1:34" s="9" customFormat="1">
-      <c r="A15" s="40"/>
+    <row r="15" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="43"/>
       <c r="B15" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="10">
         <v>8520</v>
@@ -3359,10 +3400,10 @@
       <c r="AA15" s="8"/>
       <c r="AH15" s="8"/>
     </row>
-    <row r="16" spans="1:34" s="9" customFormat="1">
-      <c r="A16" s="40"/>
+    <row r="16" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="43"/>
       <c r="B16" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="10">
         <v>10273</v>
@@ -3408,10 +3449,10 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="1:34" s="9" customFormat="1">
-      <c r="A17" s="40"/>
+    <row r="17" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="43"/>
       <c r="B17" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="10">
         <v>16847</v>
@@ -3456,12 +3497,12 @@
       <c r="AA17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="1:34">
-      <c r="A18" s="41" t="s">
-        <v>59</v>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A18" s="44" t="s">
+        <v>58</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="19">
         <v>1621</v>
@@ -3488,10 +3529,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="17" customHeight="1">
-      <c r="A19" s="38"/>
+    <row r="19" spans="1:34" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="41"/>
       <c r="B19" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="18">
         <v>2817</v>
@@ -3518,9 +3559,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
-      <c r="A20" s="35" t="s">
-        <v>60</v>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>17</v>
@@ -3550,8 +3591,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
       <c r="B21" s="25" t="s">
         <v>18</v>
       </c>
@@ -3562,7 +3603,7 @@
         <v>8945</v>
       </c>
       <c r="E21" s="10">
-        <v>45738</v>
+        <v>300000</v>
       </c>
       <c r="F21" s="10">
         <v>6</v>
@@ -3580,8 +3621,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
       <c r="B22" s="25" t="s">
         <v>19</v>
       </c>
@@ -3610,8 +3651,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
-      <c r="A23" s="35"/>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A23" s="38"/>
       <c r="B23" s="25" t="s">
         <v>20</v>
       </c>
@@ -3619,7 +3660,7 @@
         <v>300000</v>
       </c>
       <c r="D23" s="30">
-        <v>300000</v>
+        <v>17326</v>
       </c>
       <c r="E23" s="12">
         <v>300000</v>
@@ -3640,8 +3681,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A24" s="38"/>
       <c r="B24" s="25" t="s">
         <v>21</v>
       </c>
@@ -3670,8 +3711,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
-      <c r="A25" s="35"/>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A25" s="38"/>
       <c r="B25" s="25" t="s">
         <v>22</v>
       </c>
@@ -3700,8 +3741,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A26" s="38"/>
       <c r="B26" s="25" t="s">
         <v>23</v>
       </c>
@@ -3712,10 +3753,10 @@
         <v>16089</v>
       </c>
       <c r="E26" s="12">
-        <v>300000</v>
+        <v>10383</v>
       </c>
       <c r="F26" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26" s="17">
         <v>8765</v>
@@ -3730,8 +3771,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A27" s="38"/>
       <c r="B27" s="25" t="s">
         <v>31</v>
       </c>
@@ -3742,13 +3783,13 @@
         <v>7678</v>
       </c>
       <c r="E27" s="10">
-        <v>300000</v>
+        <v>22836</v>
       </c>
       <c r="F27" s="10">
         <v>4</v>
       </c>
-      <c r="G27" s="17">
-        <v>300000</v>
+      <c r="G27" s="50">
+        <v>20336</v>
       </c>
       <c r="H27" s="16">
         <v>2</v>
@@ -3760,8 +3801,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
-      <c r="A28" s="35"/>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A28" s="38"/>
       <c r="B28" s="25" t="s">
         <v>30</v>
       </c>
@@ -3781,7 +3822,7 @@
         <v>7602</v>
       </c>
       <c r="H28" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="10">
         <v>7602</v>
@@ -3790,8 +3831,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="17" customHeight="1">
-      <c r="A29" s="35"/>
+    <row r="29" spans="1:34" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="38"/>
       <c r="B29" s="25" t="s">
         <v>29</v>
       </c>
@@ -3820,8 +3861,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="17" customHeight="1">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:34" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="38"/>
       <c r="B30" s="25" t="s">
         <v>28</v>
       </c>
@@ -3850,8 +3891,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="17" customHeight="1">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:34" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="38"/>
       <c r="B31" s="25" t="s">
         <v>27</v>
       </c>
@@ -3862,7 +3903,7 @@
         <v>9261</v>
       </c>
       <c r="E31" s="10">
-        <v>15434</v>
+        <v>300000</v>
       </c>
       <c r="F31" s="10">
         <v>5</v>
@@ -3880,8 +3921,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="17" customHeight="1">
-      <c r="A32" s="35"/>
+    <row r="32" spans="1:34" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
       <c r="B32" s="25" t="s">
         <v>26</v>
       </c>
@@ -3910,8 +3951,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="17" customHeight="1">
-      <c r="A33" s="35"/>
+    <row r="33" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="38"/>
       <c r="B33" s="25" t="s">
         <v>25</v>
       </c>
@@ -3940,8 +3981,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="17" customHeight="1">
-      <c r="A34" s="35"/>
+    <row r="34" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="38"/>
       <c r="B34" s="25" t="s">
         <v>24</v>
       </c>
@@ -3955,25 +3996,25 @@
         <v>1423</v>
       </c>
       <c r="F34" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="17">
         <v>1423</v>
       </c>
       <c r="H34" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="10">
         <v>1423</v>
       </c>
       <c r="J34" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="17" customHeight="1">
-      <c r="A35" s="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="38"/>
       <c r="B35" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="10">
         <v>2977</v>
@@ -4000,10 +4041,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="17" customHeight="1">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="38"/>
       <c r="B36" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="10">
         <v>1474</v>
@@ -4015,24 +4056,24 @@
         <v>1474</v>
       </c>
       <c r="F36" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="17">
         <v>1474</v>
       </c>
       <c r="H36" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="10">
         <v>1474</v>
       </c>
       <c r="J36" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="44" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="47" t="s">
+        <v>61</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>32</v>
@@ -4062,8 +4103,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="37"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="40"/>
       <c r="B38" s="24" t="s">
         <v>33</v>
       </c>
@@ -4092,9 +4133,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>15</v>
@@ -4124,15 +4165,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="35" t="s">
-        <v>64</v>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="38" t="s">
+        <v>63</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="12">
-        <v>300000</v>
+        <v>123973</v>
       </c>
       <c r="D40" s="30">
         <v>300000</v>
@@ -4141,23 +4182,23 @@
         <v>300000</v>
       </c>
       <c r="F40" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G40" s="34">
         <v>300000</v>
       </c>
       <c r="H40" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40" s="12">
         <v>300000</v>
       </c>
       <c r="J40" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="35"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="38"/>
       <c r="B41" s="25" t="s">
         <v>39</v>
       </c>
@@ -4179,45 +4220,45 @@
       <c r="H41" s="16">
         <v>6</v>
       </c>
-      <c r="I41" s="10">
-        <v>10483</v>
+      <c r="I41" s="12">
+        <v>300000</v>
       </c>
       <c r="J41" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="38"/>
       <c r="B42" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="12">
-        <v>300000</v>
-      </c>
-      <c r="D42" s="30">
-        <v>300000</v>
+        <v>87653</v>
+      </c>
+      <c r="D42" s="36">
+        <v>28534</v>
       </c>
       <c r="E42" s="12">
         <v>300000</v>
       </c>
       <c r="F42" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G42" s="34">
         <v>300000</v>
       </c>
       <c r="H42" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I42" s="12">
         <v>300000</v>
       </c>
       <c r="J42" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="35"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="38"/>
       <c r="B43" s="25" t="s">
         <v>41</v>
       </c>
@@ -4231,23 +4272,23 @@
         <v>300000</v>
       </c>
       <c r="F43" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" s="34">
         <v>300000</v>
       </c>
       <c r="H43" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I43" s="12">
         <v>300000</v>
       </c>
       <c r="J43" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="35"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="38"/>
       <c r="B44" s="25" t="s">
         <v>42</v>
       </c>
@@ -4255,59 +4296,59 @@
         <v>9672</v>
       </c>
       <c r="D44" s="30">
-        <v>300000</v>
-      </c>
-      <c r="E44" s="10">
-        <v>89672</v>
+        <v>23234</v>
+      </c>
+      <c r="E44" s="12">
+        <v>34342</v>
       </c>
       <c r="F44" s="10">
-        <v>1</v>
-      </c>
-      <c r="G44" s="17">
-        <v>89672</v>
+        <v>4</v>
+      </c>
+      <c r="G44" s="34">
+        <v>23435</v>
       </c>
       <c r="H44" s="16">
-        <v>1</v>
-      </c>
-      <c r="I44" s="10">
-        <v>89672</v>
+        <v>5</v>
+      </c>
+      <c r="I44" s="12">
+        <v>19762</v>
       </c>
       <c r="J44" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="35"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="38"/>
       <c r="B45" s="25" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="12">
-        <v>300000</v>
-      </c>
-      <c r="D45" s="30">
-        <v>300000</v>
+        <v>3434</v>
+      </c>
+      <c r="D45" s="36">
+        <v>18534</v>
       </c>
       <c r="E45" s="12">
         <v>300000</v>
       </c>
       <c r="F45" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G45" s="34">
         <v>300000</v>
       </c>
       <c r="H45" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I45" s="12">
         <v>300000</v>
       </c>
       <c r="J45" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="35"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="38"/>
       <c r="B46" s="25" t="s">
         <v>44</v>
       </c>
@@ -4315,19 +4356,19 @@
         <v>38379</v>
       </c>
       <c r="D46" s="30">
+        <v>65432</v>
+      </c>
+      <c r="E46" s="12">
         <v>300000</v>
       </c>
-      <c r="E46" s="10">
-        <v>38379</v>
-      </c>
       <c r="F46" s="10">
-        <v>0</v>
-      </c>
-      <c r="G46" s="17">
-        <v>38379</v>
+        <v>6</v>
+      </c>
+      <c r="G46" s="34">
+        <v>300000</v>
       </c>
       <c r="H46" s="16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I46" s="10">
         <v>38379</v>
@@ -4336,8 +4377,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="35"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="38"/>
       <c r="B47" s="25" t="s">
         <v>45</v>
       </c>
@@ -4366,69 +4407,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="35"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="38"/>
       <c r="B48" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="10">
-        <v>65697</v>
+        <v>25697</v>
       </c>
       <c r="D48" s="25">
         <v>66705</v>
       </c>
       <c r="E48" s="12">
-        <v>300000</v>
+        <v>25697</v>
       </c>
       <c r="F48" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="34">
-        <v>300000</v>
+        <v>25697</v>
       </c>
       <c r="H48" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" s="12">
-        <v>300000</v>
+        <v>25697</v>
       </c>
       <c r="J48" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="38"/>
       <c r="B49" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="12">
-        <v>300000</v>
+        <v>5454</v>
       </c>
       <c r="D49" s="30">
-        <v>300000</v>
+        <v>34534</v>
       </c>
       <c r="E49" s="12">
         <v>300000</v>
       </c>
       <c r="F49" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G49" s="34">
         <v>300000</v>
       </c>
       <c r="H49" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I49" s="12">
         <v>300000</v>
       </c>
       <c r="J49" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="41" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="44" t="s">
+        <v>64</v>
       </c>
       <c r="B50" s="23" t="s">
         <v>48</v>
@@ -4440,26 +4481,26 @@
         <v>102232</v>
       </c>
       <c r="E50" s="19">
-        <v>2430</v>
+        <v>300000</v>
       </c>
       <c r="F50" s="19">
-        <v>0</v>
-      </c>
-      <c r="G50" s="31">
-        <v>2430</v>
+        <v>5</v>
+      </c>
+      <c r="G50" s="37">
+        <v>300000</v>
       </c>
       <c r="H50" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I50" s="19">
-        <v>2430</v>
+        <v>300000</v>
       </c>
       <c r="J50" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="35"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="38"/>
       <c r="B51" s="25" t="s">
         <v>49</v>
       </c>
@@ -4467,29 +4508,29 @@
         <v>4343</v>
       </c>
       <c r="D51" s="30">
-        <v>300000</v>
+        <v>53433</v>
       </c>
       <c r="E51" s="12">
-        <v>300000</v>
+        <v>4355</v>
       </c>
       <c r="F51" s="10">
         <v>0</v>
       </c>
       <c r="G51" s="34">
-        <v>300000</v>
+        <v>4355</v>
       </c>
       <c r="H51" s="16">
         <v>0</v>
       </c>
       <c r="I51" s="12">
-        <v>300000</v>
+        <v>4356</v>
       </c>
       <c r="J51" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="35"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="38"/>
       <c r="B52" s="25" t="s">
         <v>51</v>
       </c>
@@ -4518,8 +4559,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="35"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="38"/>
       <c r="B53" s="25" t="s">
         <v>52</v>
       </c>
@@ -4548,8 +4589,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="35"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="38"/>
       <c r="B54" s="25" t="s">
         <v>53</v>
       </c>
@@ -4557,7 +4598,7 @@
         <v>8944</v>
       </c>
       <c r="D54" s="30">
-        <v>300000</v>
+        <v>153433</v>
       </c>
       <c r="E54" s="12">
         <v>300000</v>
@@ -4578,8 +4619,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="35"/>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="38"/>
       <c r="B55" s="25" t="s">
         <v>54</v>
       </c>
@@ -4590,56 +4631,56 @@
         <v>59201</v>
       </c>
       <c r="E55" s="10">
-        <v>15201</v>
+        <v>5201</v>
       </c>
       <c r="F55" s="10">
         <v>0</v>
       </c>
       <c r="G55" s="17">
-        <v>15201</v>
+        <v>5201</v>
       </c>
       <c r="H55" s="16">
         <v>0</v>
       </c>
       <c r="I55" s="10">
-        <v>15201</v>
+        <v>5201</v>
       </c>
       <c r="J55" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="35"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="38"/>
       <c r="B56" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C56" s="10">
-        <v>6738</v>
+        <v>7738</v>
       </c>
       <c r="D56" s="25">
         <v>37811</v>
       </c>
       <c r="E56" s="10">
-        <v>97363</v>
+        <v>7363</v>
       </c>
       <c r="F56" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G56" s="17">
-        <v>87363</v>
+        <v>7363</v>
       </c>
       <c r="H56" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" s="10">
-        <v>57363</v>
+        <v>7363</v>
       </c>
       <c r="J56" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="38"/>
       <c r="B57" s="25" t="s">
         <v>56</v>
       </c>
@@ -4649,27 +4690,27 @@
       <c r="D57" s="25">
         <v>98519</v>
       </c>
-      <c r="E57" s="10">
-        <v>1657</v>
+      <c r="E57" s="12">
+        <v>300000</v>
       </c>
       <c r="F57" s="10">
-        <v>0</v>
-      </c>
-      <c r="G57" s="17">
-        <v>1668</v>
+        <v>4</v>
+      </c>
+      <c r="G57" s="34">
+        <v>300000</v>
       </c>
       <c r="H57" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" s="10">
-        <v>1689</v>
+        <v>3689</v>
       </c>
       <c r="J57" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="35"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="38"/>
       <c r="B58" s="25" t="s">
         <v>57</v>
       </c>
@@ -4677,30 +4718,30 @@
         <v>4838</v>
       </c>
       <c r="D58" s="30">
-        <v>300000</v>
+        <v>34050</v>
       </c>
       <c r="E58" s="12">
         <v>300000</v>
       </c>
       <c r="F58" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G58" s="34">
         <v>300000</v>
       </c>
       <c r="H58" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I58" s="10">
         <v>300000</v>
       </c>
       <c r="J58" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" s="26" t="s">
         <v>15</v>
@@ -4730,9 +4771,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="35" t="s">
-        <v>67</v>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="38" t="s">
+        <v>66</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>2</v>
@@ -4744,43 +4785,43 @@
         <v>31756</v>
       </c>
       <c r="E60" s="10">
-        <v>1805</v>
+        <v>16405</v>
       </c>
       <c r="F60" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G60" s="17">
-        <v>1805</v>
+        <v>9105</v>
       </c>
       <c r="H60" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I60" s="10">
-        <v>1805</v>
+        <v>2805</v>
       </c>
       <c r="J60" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="35"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="38"/>
       <c r="B61" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="10">
         <v>2893</v>
       </c>
-      <c r="D61" s="25">
-        <v>78940</v>
-      </c>
-      <c r="E61" s="10">
+      <c r="D61" s="35">
+        <v>300000</v>
+      </c>
+      <c r="E61" s="35">
         <v>300000</v>
       </c>
       <c r="F61" s="10">
         <v>7</v>
       </c>
-      <c r="G61" s="17">
-        <v>18323</v>
+      <c r="G61" s="35">
+        <v>300000</v>
       </c>
       <c r="H61" s="16">
         <v>8</v>
@@ -4792,18 +4833,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="35"/>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="38"/>
       <c r="B62" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="10">
         <v>1794</v>
       </c>
-      <c r="D62" s="25">
-        <v>4231</v>
-      </c>
-      <c r="E62" s="10">
+      <c r="D62" s="35">
+        <v>300000</v>
+      </c>
+      <c r="E62" s="35">
         <v>1794</v>
       </c>
       <c r="F62" s="10">
@@ -4822,8 +4863,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="35"/>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="38"/>
       <c r="B63" s="25" t="s">
         <v>9</v>
       </c>
@@ -4852,8 +4893,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="35"/>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="38"/>
       <c r="B64" s="25" t="s">
         <v>11</v>
       </c>
@@ -4864,26 +4905,26 @@
         <v>3344</v>
       </c>
       <c r="E64" s="10">
-        <v>6736</v>
+        <v>1319</v>
       </c>
       <c r="F64" s="10">
-        <v>2</v>
-      </c>
-      <c r="G64" s="17">
-        <v>6736</v>
+        <v>0</v>
+      </c>
+      <c r="G64" s="35">
+        <v>1319</v>
       </c>
       <c r="H64" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" s="10">
-        <v>6736</v>
+        <v>1319</v>
       </c>
       <c r="J64" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="38"/>
       <c r="B65" s="25" t="s">
         <v>12</v>
       </c>
@@ -4894,7 +4935,7 @@
         <v>52253</v>
       </c>
       <c r="E65" s="10">
-        <v>300000</v>
+        <v>23244</v>
       </c>
       <c r="F65" s="10">
         <v>3</v>
@@ -4903,7 +4944,7 @@
         <v>17898</v>
       </c>
       <c r="H65" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" s="10">
         <v>17898</v>
@@ -4912,8 +4953,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="35"/>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="38"/>
       <c r="B66" s="25" t="s">
         <v>14</v>
       </c>
@@ -4942,8 +4983,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="18" customHeight="1">
-      <c r="A67" s="38"/>
+    <row r="67" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="41"/>
       <c r="B67" s="24" t="s">
         <v>10</v>
       </c>
@@ -4954,36 +4995,36 @@
         <v>17231</v>
       </c>
       <c r="E67" s="18">
-        <v>8736</v>
+        <v>300000</v>
       </c>
       <c r="F67" s="18">
         <v>5</v>
       </c>
       <c r="G67" s="29">
-        <v>8736</v>
+        <v>55736</v>
       </c>
       <c r="H67" s="27">
         <v>4</v>
       </c>
       <c r="I67" s="18">
-        <v>9736</v>
+        <v>22736</v>
       </c>
       <c r="J67" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="2" customFormat="1" ht="17" customHeight="1">
+    <row r="68" spans="1:10" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="10">
-        <v>300000</v>
+        <v>34343</v>
       </c>
       <c r="D68" s="25">
-        <v>300000</v>
+        <v>233456</v>
       </c>
       <c r="E68" s="10">
         <v>300000</v>
@@ -5004,9 +5045,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="41" t="s">
-        <v>68</v>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="B69" s="23" t="s">
         <v>34</v>
@@ -5036,8 +5077,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="35"/>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="38"/>
       <c r="B70" s="25" t="s">
         <v>35</v>
       </c>
@@ -5051,13 +5092,13 @@
         <v>1563</v>
       </c>
       <c r="F70" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="17">
         <v>1563</v>
       </c>
       <c r="H70" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="10">
         <v>1563</v>
@@ -5066,8 +5107,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="38"/>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="41"/>
       <c r="B71" s="24" t="s">
         <v>36</v>
       </c>
@@ -5096,9 +5137,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="17" customHeight="1">
-      <c r="A72" s="35" t="s">
-        <v>69</v>
+    <row r="72" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="38" t="s">
+        <v>68</v>
       </c>
       <c r="B72" s="25" t="s">
         <v>8</v>
@@ -5106,14 +5147,14 @@
       <c r="C72" s="10">
         <v>1570</v>
       </c>
-      <c r="D72" s="25">
-        <v>10813</v>
+      <c r="D72" s="36">
+        <v>34344</v>
       </c>
       <c r="E72" s="10">
-        <v>10373</v>
+        <v>300000</v>
       </c>
       <c r="F72" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G72" s="17">
         <v>9837</v>
@@ -5128,8 +5169,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="17" customHeight="1">
-      <c r="A73" s="35"/>
+    <row r="73" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="38"/>
       <c r="B73" s="25" t="s">
         <v>0</v>
       </c>
@@ -5137,16 +5178,16 @@
         <v>2652</v>
       </c>
       <c r="D73" s="25">
+        <v>12324</v>
+      </c>
+      <c r="E73" s="10">
+        <v>23347</v>
+      </c>
+      <c r="F73" s="10">
+        <v>5</v>
+      </c>
+      <c r="G73" s="17">
         <v>300000</v>
-      </c>
-      <c r="E73" s="10">
-        <v>30000</v>
-      </c>
-      <c r="F73" s="10">
-        <v>4</v>
-      </c>
-      <c r="G73" s="17">
-        <v>30000</v>
       </c>
       <c r="H73" s="16">
         <v>4</v>
@@ -5158,8 +5199,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="17" customHeight="1">
-      <c r="A74" s="38"/>
+    <row r="74" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="41"/>
       <c r="B74" s="24" t="s">
         <v>1</v>
       </c>
@@ -5188,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" customHeight="1">
+    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -5200,7 +5241,7 @@
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -5212,7 +5253,7 @@
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -5224,7 +5265,7 @@
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -5234,7 +5275,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="7"/>
@@ -5244,7 +5285,7 @@
       <c r="I79" s="7"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -5255,7 +5296,7 @@
       <c r="I80" s="7"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -5266,7 +5307,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -5277,7 +5318,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -5288,7 +5329,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -5299,7 +5340,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -5310,7 +5351,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -5321,7 +5362,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -5332,7 +5373,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -5343,7 +5384,7 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -5354,7 +5395,7 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -5365,7 +5406,7 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -5376,7 +5417,7 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -5387,7 +5428,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -5398,7 +5439,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -5409,7 +5450,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -5420,7 +5461,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -5431,7 +5472,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -5442,7 +5483,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -5453,7 +5494,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -5464,7 +5505,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -5475,7 +5516,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -5486,7 +5527,7 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -5497,7 +5538,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -5508,7 +5549,7 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -5519,7 +5560,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -5530,7 +5571,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -5541,7 +5582,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -5552,7 +5593,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -5563,7 +5604,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -5574,7 +5615,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -5585,7 +5626,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -5596,7 +5637,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -5607,7 +5648,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -5618,7 +5659,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -5629,7 +5670,7 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -5640,7 +5681,7 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -5651,7 +5692,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -5662,7 +5703,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -5673,7 +5714,7 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -5684,7 +5725,7 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -5695,7 +5736,7 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -5706,7 +5747,7 @@
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -5717,7 +5758,7 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -5728,7 +5769,7 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -5739,7 +5780,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -5750,7 +5791,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5761,7 +5802,7 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -5772,7 +5813,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -5783,7 +5824,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -5794,7 +5835,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -5805,7 +5846,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -5816,7 +5857,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -5827,7 +5868,7 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -5838,7 +5879,7 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -5849,7 +5890,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -5860,7 +5901,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -5871,7 +5912,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -5882,7 +5923,7 @@
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -5893,7 +5934,7 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -5904,7 +5945,7 @@
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -5915,7 +5956,7 @@
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -5926,7 +5967,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -5937,7 +5978,7 @@
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -5948,7 +5989,7 @@
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -5959,7 +6000,7 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -5970,7 +6011,7 @@
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -5981,7 +6022,7 @@
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -5992,7 +6033,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -6003,7 +6044,7 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -6014,7 +6055,7 @@
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -6025,7 +6066,7 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -6036,7 +6077,7 @@
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -6047,7 +6088,7 @@
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -6058,7 +6099,7 @@
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -6069,7 +6110,7 @@
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -6080,7 +6121,7 @@
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6091,7 +6132,7 @@
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6102,7 +6143,7 @@
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6113,7 +6154,7 @@
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6124,7 +6165,7 @@
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6135,7 +6176,7 @@
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6146,7 +6187,7 @@
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -6157,7 +6198,7 @@
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -6168,7 +6209,7 @@
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -6179,7 +6220,7 @@
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -6190,7 +6231,7 @@
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -6201,7 +6242,7 @@
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -6212,7 +6253,7 @@
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -6223,7 +6264,7 @@
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -6234,7 +6275,7 @@
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -6245,7 +6286,7 @@
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -6256,7 +6297,7 @@
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -6267,7 +6308,7 @@
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -6278,7 +6319,7 @@
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -6289,7 +6330,7 @@
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -6300,7 +6341,7 @@
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -6311,7 +6352,7 @@
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -6322,7 +6363,7 @@
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -6333,7 +6374,7 @@
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -6344,7 +6385,7 @@
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -6355,7 +6396,7 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -6366,7 +6407,7 @@
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -6377,7 +6418,7 @@
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -6388,7 +6429,7 @@
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -6399,7 +6440,7 @@
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -6410,7 +6451,7 @@
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -6421,7 +6462,7 @@
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -6432,7 +6473,7 @@
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -6443,7 +6484,7 @@
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -6454,7 +6495,7 @@
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -6465,7 +6506,7 @@
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -6476,7 +6517,7 @@
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -6487,7 +6528,7 @@
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -6498,7 +6539,7 @@
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -6507,7 +6548,7 @@
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
@@ -6516,7 +6557,7 @@
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
@@ -6525,7 +6566,7 @@
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
@@ -6534,71 +6575,71 @@
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
     </row>
-    <row r="198" spans="1:10" ht="17" thickBot="1">
+    <row r="198" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="E198" s="6"/>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="F204" s="3">
         <f>SUMIF(F18:F74, "&lt;&gt;0")</f>
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="H204" s="3">
         <v>99</v>
       </c>
       <c r="J204" s="3">
         <f>SUMIF(J18:J74, "&lt;&gt;0")</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="F212" s="3">
         <f>(6+3+8+5+2+7+4+3+2+7+5+5+1)</f>
@@ -6608,226 +6649,226 @@
         <v>44</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="17" thickBot="1">
+    <row r="229" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
     </row>
   </sheetData>
